--- a/ExcelGenerator/output/gg.xlsx
+++ b/ExcelGenerator/output/gg.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="4230" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6690" windowHeight="4230" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tab1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tab2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tab3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,16 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t>Student Report Card</t>
+    <t>Report Card</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,8 +49,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="50"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:P2"/>
+  <dimension ref="A2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="6:16" ht="64.5" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:16" ht="64.5" x14ac:dyDescent="0.95">
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +440,26 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
+    <row r="4" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:P2"/>
@@ -437,13 +471,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:P2"/>
+  <dimension ref="A2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="6:16" ht="64.5" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:16" ht="64.5" x14ac:dyDescent="0.95">
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,36 +492,25 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:P2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="6:16" ht="64.5" x14ac:dyDescent="0.95">
-      <c r="F2" s="1" t="s">
-        <v>0</v>
+    <row r="4" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="39" x14ac:dyDescent="0.6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
